--- a/other/配置表/t-特殊属性表.xlsx
+++ b/other/配置表/t-特殊属性表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D5B10-DA5D-4B19-A35A-D835CB349F1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA40F43-CE2B-4463-885E-D199FCA1484D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>J</t>
@@ -45,6 +46,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -53,6 +55,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,6 +70,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -75,6 +79,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -108,9 +113,6 @@
     <t>强击</t>
   </si>
   <si>
-    <t>{100,200}{200,300}{300,400}{500,600}</t>
-  </si>
-  <si>
     <t>万分比提升最大攻击力</t>
   </si>
   <si>
@@ -156,7 +158,112 @@
     <t>{1,2}{1,3}{2,3}{3,4}</t>
   </si>
   <si>
-    <t>{100,200}{200,300}{300,400}{8000,9000}</t>
+    <r>
+      <t>{100,200}{200,300}{300,400}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{100,200}{200,300}{300,400}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{700,1000}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{100,200}{200,300}{300,400}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{700,1000}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{100,200}{200,300}{300,400}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1000,1500}</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +283,27 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -210,8 +328,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,7 +609,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,8 +644,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -534,13 +653,13 @@
         <v>400002</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -548,13 +667,13 @@
         <v>400003</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,13 +681,13 @@
         <v>400004</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,13 +695,13 @@
         <v>400005</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,13 +709,13 @@
         <v>400006</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,13 +723,13 @@
         <v>400007</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,13 +737,13 @@
         <v>400008</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/t-特殊属性表.xlsx
+++ b/other/配置表/t-特殊属性表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA40F43-CE2B-4463-885E-D199FCA1484D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="随机特殊属性" sheetId="2" r:id="rId1"/>
@@ -20,33 +14,31 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>J</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -55,7 +47,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -63,14 +54,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -79,12 +69,12 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 4个值域分别对应4个品质
-顺序为绿，蓝，紫，橙</t>
+顺序为绿，蓝，紫，橙
+如果装备也需要用上对应属性值，需要在这里填上属性值范围（红字表示目前装备不支持这些属性）</t>
         </r>
       </text>
     </comment>
@@ -93,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>id</t>
   </si>
@@ -113,52 +103,13 @@
     <t>强击</t>
   </si>
   <si>
-    <t>万分比提升最大攻击力</t>
-  </si>
-  <si>
-    <t>勇猛</t>
-  </si>
-  <si>
-    <t>万分比提升最大生命值</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>万分比提升最大防御值</t>
-  </si>
-  <si>
-    <t>坚固</t>
-  </si>
-  <si>
-    <t>提升暴击数值</t>
-  </si>
-  <si>
-    <t>暴烈</t>
-  </si>
-  <si>
-    <t>提升闪避数值</t>
-  </si>
-  <si>
-    <t>灵巧</t>
-  </si>
-  <si>
-    <t>提升卡牌伤害万分比</t>
-  </si>
-  <si>
-    <t>智慧</t>
-  </si>
-  <si>
-    <t>降低使用卡牌的消耗</t>
-  </si>
-  <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>{1,2}{1,3}{2,3}{3,4}</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>{100,200}{200,300}{300,400}{</t>
     </r>
     <r>
@@ -166,9 +117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>700</t>
     </r>
@@ -176,9 +125,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -187,9 +135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1000</t>
     </r>
@@ -197,16 +143,26 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万分比提升最大攻击力</t>
+  </si>
+  <si>
+    <t>勇猛</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>{100,200}{200,300}{300,400}</t>
     </r>
     <r>
@@ -214,16 +170,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>{700,1000}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万分比提升最大生命值</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>万分比提升最大防御值</t>
+  </si>
+  <si>
+    <t>坚固</t>
+  </si>
+  <si>
+    <t>提升暴击数值</t>
+  </si>
+  <si>
+    <t>暴烈</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>{100,200}{200,300}{300,400}</t>
     </r>
     <r>
@@ -231,9 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>{700,1000}</t>
     </r>
@@ -241,16 +216,32 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升闪避数值</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>提升卡牌伤害万分比</t>
+  </si>
+  <si>
+    <t>智慧</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>{100,200}{200,300}{300,400}</t>
     </r>
     <r>
@@ -258,20 +249,50 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>{1000,1500}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低使用卡牌的消耗</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>{1,2}{1,3}{2,3}{3,4}</t>
+  </si>
+  <si>
+    <t>万分比提升在线金币奖励</t>
+  </si>
+  <si>
+    <t>拾荒者</t>
+  </si>
+  <si>
+    <t>万分比提升离线金币奖励</t>
+  </si>
+  <si>
+    <t>工作狂</t>
+  </si>
+  <si>
+    <t>万分比提升轮回点奖励</t>
+  </si>
+  <si>
+    <t>精打细算</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,43 +301,364 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,25 +666,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -600,27 +1231,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>400001</v>
       </c>
@@ -644,112 +1275,145 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>400002</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>400003</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>400004</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>400005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>400006</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>400007</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>400008</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1">
+        <v>400009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>400010</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>400011</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other/配置表/t-特殊属性表.xlsx
+++ b/other/配置表/t-特殊属性表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A68EB4F-B8E5-4BC8-A0A5-6DAC56642695}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53FE21D-D96F-4427-BA59-F8AA3AA27131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -111,83 +111,9 @@
     <t>强击</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{100,200}{200,300}{300,400}{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>700</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>勇猛</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{100,200}{200,300}{300,400}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{700,1000}</t>
-    </r>
-  </si>
-  <si>
     <t>健康</t>
   </si>
   <si>
@@ -197,66 +123,12 @@
     <t>暴烈</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{100,200}{200,300}{300,400}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{700,1000}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>灵巧</t>
   </si>
   <si>
     <t>智慧</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{100,200}{200,300}{300,400}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{1000,1500}</t>
-    </r>
-  </si>
-  <si>
     <t>降低使用卡牌的消耗</t>
   </si>
   <si>
@@ -276,58 +148,470 @@
   </si>
   <si>
     <t>提升普攻伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升最大攻击力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升最大生命值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升最大防御值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升暴击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升闪避</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升卡牌伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升在线金币奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升离线金币奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提升轮回点奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>百分比提升攻速</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>迅捷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{50,150}{150,250}{250,350}{450,600}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升普攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>害</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提升最大攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升最大生命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升最大防御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提升暴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>避</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>害</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>降低使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牌的消耗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提升在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币奖励</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>离线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币奖励</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>精打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,28 +626,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -387,10 +649,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,12 +691,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -711,181 +986,184 @@
     <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>400001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>400002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>400003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>400004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>400005</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>400002</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>400006</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>400003</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>400007</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>400004</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>400008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>400009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>500001</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>400005</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>500002</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>400006</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>500003</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>400007</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>400008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>400009</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>500001</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>500002</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>500003</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
   <legacyDrawing r:id="rId1"/>

--- a/other/配置表/t-特殊属性表.xlsx
+++ b/other/配置表/t-特殊属性表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53FE21D-D96F-4427-BA59-F8AA3AA27131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC8C64-792F-4457-ACF4-55B1BB3662A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -151,18 +151,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>提升最大攻击力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升最大生命值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升最大防御值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>提升暴击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -199,412 +187,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>提升普攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>害</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>强</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>提升最大攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>力</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提升最大生命</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提升最大防御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>坚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>提升暴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>闪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>避</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>巧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>害</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>降低使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>牌的消耗</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>提升在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>币奖励</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>离线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>币奖励</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>精打</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算</t>
-    </r>
+    <t>{50,100}{100,200}{200,300}{300,400}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升生命值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,7 +571,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1019,13 +615,13 @@
         <v>400002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1033,13 +629,13 @@
         <v>400003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1047,13 +643,13 @@
         <v>400004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1061,13 +657,13 @@
         <v>400005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1075,13 +671,13 @@
         <v>400006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1089,13 +685,13 @@
         <v>400007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1117,13 +713,13 @@
         <v>400009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1131,7 +727,7 @@
         <v>500001</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1143,7 +739,7 @@
         <v>500002</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
@@ -1155,7 +751,7 @@
         <v>500003</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>16</v>
